--- a/document/【ファイルサーバ課題】シーケンス図.xlsx
+++ b/document/【ファイルサーバ課題】シーケンス図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E469C67D-61FF-4411-AF35-B938846012AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC260955-B8B4-45B7-B01A-D4E9AD5BFA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{DDE17DA1-BF60-4472-976A-AD187415C1E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{DDE17DA1-BF60-4472-976A-AD187415C1E0}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -29,26 +29,17 @@
     <sheet name="14_フォルダ削除" sheetId="17" r:id="rId14"/>
     <sheet name="13_フォルダ移動" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="23">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -207,6 +198,44 @@
     </rPh>
     <rPh sb="220" eb="222">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田雅之</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マサユキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01：コントローラー名を変更
+　　サービスクラス名を変更</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -468,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +540,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,6 +589,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1484,7 +1519,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>User</a:t>
+            <a:t>Login</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
@@ -1501,7 +1536,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>UserController.java</a:t>
+            <a:t>LoginController.java</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
@@ -1819,7 +1854,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>User</a:t>
+            <a:t>DB</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
@@ -1836,7 +1871,15 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
               <a:effectLst/>
             </a:rPr>
-            <a:t>UserService.java</a:t>
+            <a:t>DbUsersDetailService</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>.java</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
             <a:effectLst/>
@@ -3417,8 +3460,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1440687" y="6874327"/>
-          <a:ext cx="2908156" cy="2171702"/>
+          <a:off x="1437058" y="6749141"/>
+          <a:ext cx="2900899" cy="2122717"/>
           <a:chOff x="395655" y="8327160"/>
           <a:chExt cx="4063406" cy="6692642"/>
         </a:xfrm>
@@ -3960,8 +4003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1447800" y="4528455"/>
-          <a:ext cx="6460671" cy="1899559"/>
+          <a:off x="1444171" y="4457698"/>
+          <a:ext cx="6442529" cy="1856016"/>
           <a:chOff x="396549" y="8327160"/>
           <a:chExt cx="4062512" cy="6803814"/>
         </a:xfrm>
@@ -15873,8 +15916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1404255" y="6471555"/>
-          <a:ext cx="3461659" cy="2253345"/>
+          <a:off x="1400626" y="6351812"/>
+          <a:ext cx="3452588" cy="2198917"/>
           <a:chOff x="396549" y="8327160"/>
           <a:chExt cx="4062512" cy="6803814"/>
         </a:xfrm>
@@ -17645,8 +17688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2324096" y="4000498"/>
-          <a:ext cx="3243947" cy="1567546"/>
+          <a:off x="2318653" y="3935184"/>
+          <a:ext cx="3234876" cy="1534889"/>
           <a:chOff x="396549" y="8327160"/>
           <a:chExt cx="4062512" cy="6803814"/>
         </a:xfrm>
@@ -19618,8 +19661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1431470" y="7645790"/>
-          <a:ext cx="2834310" cy="1977889"/>
+          <a:off x="1427841" y="7498833"/>
+          <a:ext cx="2827053" cy="1928903"/>
           <a:chOff x="396549" y="8327160"/>
           <a:chExt cx="4062512" cy="6803814"/>
         </a:xfrm>
@@ -22153,8 +22196,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1415617" y="5885622"/>
-          <a:ext cx="2850164" cy="1580324"/>
+          <a:off x="1411988" y="5776765"/>
+          <a:ext cx="2842907" cy="1547667"/>
           <a:chOff x="396549" y="8327160"/>
           <a:chExt cx="4062512" cy="6803814"/>
         </a:xfrm>
@@ -28430,8 +28473,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1240972" y="6041571"/>
-          <a:ext cx="2253335" cy="1915885"/>
+          <a:off x="1239158" y="5932714"/>
+          <a:ext cx="2246078" cy="1872342"/>
           <a:chOff x="396549" y="8327160"/>
           <a:chExt cx="4062512" cy="6803814"/>
         </a:xfrm>
@@ -36661,21 +36704,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D614573-0B30-441B-82B6-B1E3FE5D31BB}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="11.0703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -36692,7 +36737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="55.3" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -36710,7 +36755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="202.75" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:5" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -36728,17 +36773,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="19">
+        <v>44182</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -36748,7 +36801,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -36758,7 +36811,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -36768,7 +36821,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -36778,7 +36831,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -36788,7 +36841,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -36798,7 +36851,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -36808,7 +36861,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -36818,7 +36871,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -36828,7 +36881,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -36838,7 +36891,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -36848,7 +36901,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -36858,7 +36911,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -36868,7 +36921,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -36878,7 +36931,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -36892,6 +36945,9 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -36903,105 +36959,105 @@
       <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44176</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -37016,9 +37072,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -37033,9 +37089,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -37050,9 +37106,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -37095,105 +37151,105 @@
       <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44176</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -37208,9 +37264,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -37225,9 +37281,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -37242,9 +37298,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -37287,105 +37343,105 @@
       <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44176</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -37400,9 +37456,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -37417,9 +37473,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -37434,9 +37490,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -37479,105 +37535,105 @@
       <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44176</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -37592,9 +37648,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -37609,9 +37665,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -37626,9 +37682,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -37671,105 +37727,105 @@
       <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44176</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -37784,9 +37840,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -37801,9 +37857,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -37818,9 +37874,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -37863,105 +37919,105 @@
       <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44176</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -37976,9 +38032,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -37993,9 +38049,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -38010,9 +38066,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -38051,104 +38107,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC38D8A-D3F4-4EE4-9BDE-4F81570FCCE8}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
-        <v>10</v>
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
+        <v>19</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
-        <v>44179</v>
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
+        <v>44182</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -38164,11 +38220,11 @@
       <c r="N5" s="9"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -38183,9 +38239,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -38200,9 +38256,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -38217,9 +38273,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -38262,105 +38318,105 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44179</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -38375,9 +38431,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -38392,9 +38448,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -38409,9 +38465,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -38454,105 +38510,105 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44179</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -38567,9 +38623,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -38584,9 +38640,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -38601,9 +38657,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -38646,105 +38702,105 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44179</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -38759,9 +38815,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -38776,9 +38832,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -38793,9 +38849,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -38838,105 +38894,105 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44179</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -38951,9 +39007,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -38968,9 +39024,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -38985,9 +39041,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -39030,105 +39086,105 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44179</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -39143,9 +39199,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -39160,9 +39216,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -39177,9 +39233,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -39222,105 +39278,105 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44179</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -39335,9 +39391,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -39352,9 +39408,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -39369,9 +39425,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -39414,105 +39470,105 @@
       <selection activeCell="A3" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.35546875" style="5"/>
+    <col min="1" max="16384" width="8.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="33" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33" t="s">
+    <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="26">
+      <c r="K2" s="34"/>
+      <c r="L2" s="27">
         <v>44175</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+    <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="26">
+      <c r="K4" s="34"/>
+      <c r="L4" s="27">
         <v>44176</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -39527,9 +39583,9 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -39544,9 +39600,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -39561,9 +39617,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+    <row r="9" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
